--- a/medicine/Mort/Monde_souterrain/Monde_souterrain.xlsx
+++ b/medicine/Mort/Monde_souterrain/Monde_souterrain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monde souterrain ou au-delà également connu sous le nom d'enfer, est le monde surnaturel des morts dans diverses traditions religieuses et mythes, traditionnellement placé en dessous du monde des vivants.
 </t>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le concept d'un monde souterrain se retrouve dans presque toutes les civilisations depuis la préhistoire[1]. Les caractéristiques communes des mythes du monde souterrain sont des récits tels que la catabase, montrant souvent un héros descendant dans le monde des morts. D'autres mythes renforcent les traditions selon lesquelles l'entrée des âmes aux enfers nécessite une observation appropriée du rite funéraire, comme l'histoire grecque antique du Patrocle récemment mort hantant Achille jusqu'à ce que son corps puisse être correctement enterré à cette fin[2]. Les personnes ayant un haut statut social sont habillées et équipées afin de mieux naviguer dans le monde souterrain[3].
-Un certain nombre de mythologies incorporent le concept de l'âme du défunt faisant son propre voyage vers les enfers, les morts devant traverser un obstacle déterminant tel qu'un lac ou une rivière pour atteindre cette destination[4]. L'imagerie de tels voyages peut être trouvée dans l'art ancien et moderne. La descente aux enfers a été décrite comme "le mythe le plus important pour les auteurs modernistes" par Evans Lansing Smith[5].
+Le concept d'un monde souterrain se retrouve dans presque toutes les civilisations depuis la préhistoire. Les caractéristiques communes des mythes du monde souterrain sont des récits tels que la catabase, montrant souvent un héros descendant dans le monde des morts. D'autres mythes renforcent les traditions selon lesquelles l'entrée des âmes aux enfers nécessite une observation appropriée du rite funéraire, comme l'histoire grecque antique du Patrocle récemment mort hantant Achille jusqu'à ce que son corps puisse être correctement enterré à cette fin. Les personnes ayant un haut statut social sont habillées et équipées afin de mieux naviguer dans le monde souterrain.
+Un certain nombre de mythologies incorporent le concept de l'âme du défunt faisant son propre voyage vers les enfers, les morts devant traverser un obstacle déterminant tel qu'un lac ou une rivière pour atteindre cette destination. L'imagerie de tels voyages peut être trouvée dans l'art ancien et moderne. La descente aux enfers a été décrite comme "le mythe le plus important pour les auteurs modernistes" par Evans Lansing Smith.
 Chthonien ou tellurique sont les adjectifs techniques pour désigner le monde souterrain.
 </t>
         </is>
@@ -547,10 +561,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lieux du monde souterrain
-Cette liste comprend des mondes souterrains dans diverses traditions religieuses :
-Figures du monde souterrain
-Cette liste comprend les patrons, les gardiens du monde souterrain, ou des figures associées à celui-ci dans diverses traditions mythologiques ou religieuses.
+          <t>Lieux du monde souterrain</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste comprend des mondes souterrains dans diverses traditions religieuses :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Monde_souterrain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monde_souterrain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Par religion et mythologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Figures du monde souterrain</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste comprend les patrons, les gardiens du monde souterrain, ou des figures associées à celui-ci dans diverses traditions mythologiques ou religieuses.
 </t>
         </is>
       </c>
